--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3540495.926607148</v>
+        <v>3538289.833200707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>144.3751688050727</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.03010001174249</v>
+        <v>225.7197075004277</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866705</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>129.4635211633449</v>
+        <v>94.26179614982394</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154851</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015508</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>199.620149978855</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>99.31109580500578</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>6.28367916400425</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122683</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.71969997626057</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>154.7813293598786</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.5103646250802</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.5103646250807</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.2480341124479</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744749</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>199.3654827743552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.69859409301648</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>134.3505483447217</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.27266146411678</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.474660549155</v>
       </c>
       <c r="U25" t="n">
-        <v>15.11174121957023</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.2257571376458</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,10 +2767,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249702</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>177.7766012698047</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>28.73745965623258</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880155</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213004</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840891</v>
@@ -3430,19 +3430,19 @@
         <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>56.43806022150405</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.64022595311678</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
-        <v>292.25684218409</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
         <v>313.7455524313672</v>
@@ -3664,13 +3664,13 @@
         <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
-        <v>80.9032785614915</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>77.70885356621049</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400152</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3794,7 +3794,7 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728569</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V41" t="n">
         <v>292.2568421840891</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.751404812582</v>
+        <v>97.85567890965903</v>
       </c>
       <c r="D43" t="n">
-        <v>54.56495339717481</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
         <v>110.9385463605233</v>
@@ -3910,13 +3910,13 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
         <v>184.0535329901234</v>
@@ -4031,7 +4031,7 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728569</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>60.29851832539499</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>80.3980146048707</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.3170280971981</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="C2" t="n">
-        <v>952.3170280971981</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="D2" t="n">
-        <v>594.0513294904476</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="E2" t="n">
-        <v>208.2630768922034</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869562</v>
+        <v>605.9962505970121</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501633</v>
+        <v>377.9965460511255</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244785</v>
+        <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293503</v>
+        <v>406.6417666293495</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024638</v>
+        <v>785.5410436024627</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.74604078277</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400861</v>
+        <v>1654.40965540086</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671745</v>
+        <v>2015.885456671743</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110677</v>
+        <v>2286.722307110675</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750816</v>
+        <v>2342.254609045089</v>
       </c>
       <c r="S2" t="n">
-        <v>2412.887742750816</v>
+        <v>2160.416384320152</v>
       </c>
       <c r="T2" t="n">
-        <v>2412.887742750816</v>
+        <v>1940.694284428202</v>
       </c>
       <c r="U2" t="n">
-        <v>2412.887742750816</v>
+        <v>1686.912625935712</v>
       </c>
       <c r="V2" t="n">
-        <v>2081.824855407246</v>
+        <v>1355.849738592141</v>
       </c>
       <c r="W2" t="n">
-        <v>1729.056200137132</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="X2" t="n">
-        <v>1729.056200137132</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.91686816132</v>
+        <v>612.9417513462156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.6128389055784</v>
+        <v>751.4367136075284</v>
       </c>
       <c r="C3" t="n">
-        <v>679.1598096244514</v>
+        <v>576.9836843264014</v>
       </c>
       <c r="D3" t="n">
-        <v>530.2253999632002</v>
+        <v>428.0492746651502</v>
       </c>
       <c r="E3" t="n">
-        <v>399.454166464872</v>
+        <v>332.8353391602775</v>
       </c>
       <c r="F3" t="n">
-        <v>252.919608491757</v>
+        <v>186.3007811871624</v>
       </c>
       <c r="G3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501633</v>
+        <v>111.2074192719582</v>
       </c>
       <c r="K3" t="n">
-        <v>282.46960093341</v>
+        <v>345.4192653503517</v>
       </c>
       <c r="L3" t="n">
-        <v>658.8007278096534</v>
+        <v>721.7503922265948</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122024</v>
+        <v>1212.890288538966</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987185</v>
+        <v>1732.73620986181</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.07411260221</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.44339364232</v>
+        <v>2257.443393642317</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841569</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="S3" t="n">
-        <v>2354.422089841569</v>
+        <v>2252.245964543519</v>
       </c>
       <c r="T3" t="n">
-        <v>2155.00780817987</v>
+        <v>2052.83168288182</v>
       </c>
       <c r="U3" t="n">
-        <v>1926.829439856077</v>
+        <v>1824.653314558027</v>
       </c>
       <c r="V3" t="n">
-        <v>1691.677331624335</v>
+        <v>1589.501206326285</v>
       </c>
       <c r="W3" t="n">
-        <v>1437.439974896133</v>
+        <v>1335.263849598083</v>
       </c>
       <c r="X3" t="n">
-        <v>1229.5884746906</v>
+        <v>1127.41234939255</v>
       </c>
       <c r="Y3" t="n">
-        <v>1021.828175925647</v>
+        <v>919.6520506275965</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461035</v>
+        <v>91.87143294461015</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384348</v>
+        <v>203.2083598384344</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534293</v>
+        <v>330.9866617534287</v>
       </c>
       <c r="N4" t="n">
-        <v>461.161297669286</v>
+        <v>461.1612976692852</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984533</v>
+        <v>565.3823477984524</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978487</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978487</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978487</v>
+        <v>477.8838208831902</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978487</v>
+        <v>477.8838208831902</v>
       </c>
       <c r="T4" t="n">
-        <v>403.2564812477777</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="U4" t="n">
-        <v>403.2564812477777</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="V4" t="n">
-        <v>148.5719930418909</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="W4" t="n">
-        <v>48.25775485501633</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501633</v>
+        <v>48.25775485501627</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>74.21353655248491</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>60.29013249107582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>667.7988452409105</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7988452409105</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.4614752479206</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>575.4989583075089</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>217.2332597007584</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>217.2332597007584</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>210.287758951555</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,7 +5036,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277728</v>
@@ -5045,46 +5045,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1586.925993846825</v>
       </c>
       <c r="M11" t="n">
-        <v>2949.638265046255</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N11" t="n">
-        <v>3496.417082105037</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3999.389552984374</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.163919341552</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
@@ -5133,10 +5133,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.2179684131224</v>
+        <v>210.2179684131219</v>
       </c>
       <c r="C13" t="n">
-        <v>210.2179684131224</v>
+        <v>210.2179684131219</v>
       </c>
       <c r="D13" t="n">
-        <v>210.2179684131224</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>210.2179684131224</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>210.2179684131224</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5233,16 +5233,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783397</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413791</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>391.8664332433617</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.8664332433621</v>
+        <v>391.8664332433616</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,34 +5279,34 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175503</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.59632740215</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5358,25 +5358,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>512.3474203524157</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>362.23078094008</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>681.2836032803226</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>919.9473678912377</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364129</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5549,7 +5549,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.42128699119</v>
@@ -5558,7 +5558,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.070220408989</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,22 +5753,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>799.5135445647356</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5780,7 +5780,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5829,7 +5829,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193594</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.6968904858342</v>
+        <v>414.6138567886367</v>
       </c>
       <c r="C22" t="n">
-        <v>312.7607075579273</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>312.7607075579273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>312.7607075579273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>312.7607075579273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,22 +5911,22 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,7 +5935,7 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5947,13 +5947,13 @@
         <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838515</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858342</v>
+        <v>771.1140605227948</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858342</v>
+        <v>550.3214813792647</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6175,22 +6175,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442898</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>533.2127443498359</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>533.2127443498359</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>383.0961049375003</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>235.1830113551073</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>235.1830113551073</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,52 +6382,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838515</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858342</v>
+        <v>935.6537883236058</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>714.8612091800757</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,49 +6464,49 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>972.9616805754513</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1837.480496228806</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2816.030799058634</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N29" t="n">
-        <v>3362.809616117416</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1686.940684347277</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501055</v>
+        <v>1465.174068916803</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1176.071202042446</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208117</v>
+        <v>921.3867138365594</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383851</v>
+        <v>631.9695437995988</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858337</v>
+        <v>631.9695437995988</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423037</v>
+        <v>411.1769646560687</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,22 +6698,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,34 +6874,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1645.79938766256</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1356.696520788203</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1102.012032582316</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
@@ -6938,22 +6938,22 @@
         <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285446</v>
+        <v>760.8061599608104</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.318051576953</v>
+        <v>1625.324975614165</v>
       </c>
       <c r="M35" t="n">
-        <v>1591.849956248877</v>
+        <v>2158.856880286089</v>
       </c>
       <c r="N35" t="n">
-        <v>2138.62877330766</v>
+        <v>2705.635697344871</v>
       </c>
       <c r="O35" t="n">
-        <v>2998.416327470903</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P35" t="n">
-        <v>3711.771414917848</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q35" t="n">
         <v>4170.249617426836</v>
@@ -6968,10 +6968,10 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
         <v>3154.90602777756</v>
@@ -7014,25 +7014,25 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J36" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702911</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506382</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633034</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.126759780831</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.25898808677</v>
+        <v>582.2589880867711</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033539</v>
+        <v>449.1767610033548</v>
       </c>
       <c r="D37" t="n">
-        <v>334.9140774355083</v>
+        <v>334.9140774355099</v>
       </c>
       <c r="E37" t="n">
-        <v>334.9140774355083</v>
+        <v>277.905935797627</v>
       </c>
       <c r="F37" t="n">
-        <v>223.8780857820887</v>
+        <v>277.905935797627</v>
       </c>
       <c r="G37" t="n">
-        <v>223.8780857820887</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H37" t="n">
-        <v>113.5148548444372</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218557</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935372</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7114,31 +7114,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
         <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715585</v>
+        <v>912.9921203715592</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725191</v>
+        <v>728.05349707252</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529682</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H38" t="n">
         <v>90.72827659571333</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022406</v>
+        <v>1350.073879186605</v>
       </c>
       <c r="M38" t="n">
-        <v>1912.75391469433</v>
+        <v>1883.60578385853</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.532731753113</v>
+        <v>2430.384600917312</v>
       </c>
       <c r="O38" t="n">
-        <v>3339.497382082568</v>
+        <v>2933.357071796649</v>
       </c>
       <c r="P38" t="n">
-        <v>3734.271748439745</v>
+        <v>3646.712159243594</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426836</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V38" t="n">
         <v>3471.820727203183</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229649</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702911</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867699</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033538</v>
+        <v>449.1767610033542</v>
       </c>
       <c r="D40" t="n">
-        <v>367.4562776079078</v>
+        <v>334.9140774355092</v>
       </c>
       <c r="E40" t="n">
-        <v>367.4562776079078</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.52268044532</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7360,7 +7360,7 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
         <v>1577.521461978951</v>
@@ -7372,10 +7372,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715583</v>
+        <v>912.9921203715587</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725189</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529682</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1225.723700597306</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M41" t="n">
-        <v>1759.25560526923</v>
+        <v>2035.386166251485</v>
       </c>
       <c r="N41" t="n">
-        <v>2306.034422328013</v>
+        <v>2582.164983310267</v>
       </c>
       <c r="O41" t="n">
-        <v>3185.999072657467</v>
+        <v>3462.129633639722</v>
       </c>
       <c r="P41" t="n">
-        <v>3899.354160104413</v>
+        <v>3856.9039999969</v>
       </c>
       <c r="Q41" t="n">
-        <v>4147.640521860095</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
         <v>3767.029658702263</v>
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.0909164154536</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C43" t="n">
-        <v>605.0086893320374</v>
+        <v>483.4148679760036</v>
       </c>
       <c r="D43" t="n">
-        <v>549.8925747894365</v>
+        <v>369.1521844081586</v>
       </c>
       <c r="E43" t="n">
-        <v>437.8334370515341</v>
+        <v>257.0930466702563</v>
       </c>
       <c r="F43" t="n">
-        <v>326.7974453981145</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="G43" t="n">
-        <v>194.9485646173243</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967277</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
         <v>755.6763338935367</v>
@@ -7585,7 +7585,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
@@ -7594,25 +7594,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2172.514960923483</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1986.6023013375</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1733.353390307635</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1514.522857946238</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.959643753769</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.824048700242</v>
+        <v>912.9921203715587</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.8854254012026</v>
+        <v>728.0534970725192</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529682</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386981</v>
@@ -7652,31 +7652,31 @@
         <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1065.913843378165</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>2044.464146207993</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N44" t="n">
-        <v>3024.216418434639</v>
+        <v>2583.647171465564</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313976</v>
+        <v>3086.619642344901</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671154</v>
+        <v>3799.974729791846</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426836</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702263</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C45" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
         <v>178.26260317029</v>
@@ -7737,37 +7737,37 @@
         <v>1230.501287685618</v>
       </c>
       <c r="N45" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.2354894847515</v>
+        <v>582.2589880867702</v>
       </c>
       <c r="C46" t="n">
-        <v>503.1532624013354</v>
+        <v>449.176761003354</v>
       </c>
       <c r="D46" t="n">
-        <v>388.8905788334904</v>
+        <v>449.176761003354</v>
       </c>
       <c r="E46" t="n">
-        <v>276.831441095588</v>
+        <v>449.176761003354</v>
       </c>
       <c r="F46" t="n">
-        <v>165.7954494421684</v>
+        <v>388.2691667352783</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7954494421684</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967277</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967274</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376933</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015536</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9686217695399</v>
+        <v>912.9921203715586</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.0299984705005</v>
+        <v>728.0534970725191</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733603</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>345.1462001438736</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.0806254639763</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792323</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.64153443578934</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109335</v>
       </c>
       <c r="O14" t="n">
-        <v>272.8828616575895</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.6385654278975</v>
       </c>
       <c r="L17" t="n">
-        <v>1.017475755657642</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>13.98823883547112</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>395.1460246798109</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>251.186781668399</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>189.1883762200324</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>216.9877583263348</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>361.2819237492104</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>155.0730521538039</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>360.4192760443497</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>294.7028561713657</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>189.5873810418269</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>30.35515918955753</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>22.83747026943539</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.672516970920583</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>57.50431333843827</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313217</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.51544363394758</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>27.18592853412127</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696697</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>52.77216054947277</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>191.8244042435745</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>45.48143183721555</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>95.75314679491144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1000969860426</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696673</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>27.80005112138243</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>11.99242406163721</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696663</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>190.8114896199366</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605233</v>
+        <v>54.50048613901927</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>32.2167781706755</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.21677817067503</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>33.22969279431285</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>33.89572590292296</v>
       </c>
       <c r="D43" t="n">
-        <v>58.55510333499172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>49.62711341149043</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28.86158402340427</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400152</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.873786738</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691060.9996313715</v>
+        <v>691060.9996313713</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244615</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244621</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244625</v>
@@ -26323,37 +26323,37 @@
         <v>734601.3057409192</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="G2" t="n">
         <v>734601.3057409193</v>
       </c>
       <c r="H2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="I2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="J2" t="n">
-        <v>734601.3057409194</v>
+        <v>734601.3057409188</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.3057409194</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="L2" t="n">
-        <v>734601.3057409194</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="M2" t="n">
+        <v>753387.8142180692</v>
+      </c>
+      <c r="N2" t="n">
         <v>753387.8142180691</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>753387.8142180693</v>
+      </c>
+      <c r="P2" t="n">
         <v>753387.8142180694</v>
-      </c>
-      <c r="O2" t="n">
-        <v>753387.8142180695</v>
-      </c>
-      <c r="P2" t="n">
-        <v>753387.8142180697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.142839428</v>
+        <v>507203.1428394271</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417927</v>
+        <v>78665.28217418013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410737</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022144</v>
+        <v>18289.94367022162</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547195</v>
+        <v>232017.7717547198</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,7 +26424,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289578</v>
@@ -26439,25 +26439,25 @@
         <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
+        <v>55718.30868501864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55718.30868501859</v>
+      </c>
+      <c r="O4" t="n">
         <v>55718.30868501862</v>
       </c>
-      <c r="N4" t="n">
-        <v>55718.30868501858</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55718.30868501859</v>
-      </c>
       <c r="P4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.30868501861</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.6887113344</v>
+        <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26503,13 +26503,13 @@
         <v>91026.04982123678</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56961.96618101982</v>
+        <v>-56961.96618101973</v>
       </c>
       <c r="C6" t="n">
-        <v>388016.8614238404</v>
+        <v>388016.8614238391</v>
       </c>
       <c r="D6" t="n">
         <v>466682.1435980197</v>
       </c>
       <c r="E6" t="n">
-        <v>-117721.4658590969</v>
+        <v>-117788.6613493226</v>
       </c>
       <c r="F6" t="n">
-        <v>609655.9481343096</v>
+        <v>609588.7526440839</v>
       </c>
       <c r="G6" t="n">
-        <v>609655.94813431</v>
+        <v>609588.7526440842</v>
       </c>
       <c r="H6" t="n">
-        <v>609655.9481343096</v>
+        <v>609588.7526440842</v>
       </c>
       <c r="I6" t="n">
-        <v>609655.94813431</v>
+        <v>609588.752644084</v>
       </c>
       <c r="J6" t="n">
-        <v>451826.5479932365</v>
+        <v>451759.3525030101</v>
       </c>
       <c r="K6" t="n">
-        <v>591366.0044640886</v>
+        <v>591298.8089738623</v>
       </c>
       <c r="L6" t="n">
-        <v>609655.9481343101</v>
+        <v>609588.7526440839</v>
       </c>
       <c r="M6" t="n">
-        <v>482794.6645236387</v>
+        <v>482778.2433806484</v>
       </c>
       <c r="N6" t="n">
-        <v>606643.4557118141</v>
+        <v>606627.0345688235</v>
       </c>
       <c r="O6" t="n">
-        <v>606643.4557118142</v>
+        <v>606627.0345688238</v>
       </c>
       <c r="P6" t="n">
-        <v>606643.4557118143</v>
+        <v>606627.0345688239</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
         <v>35.49541628604582</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688988</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877041</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688988</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818783</v>
+        <v>61.17508524818851</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877041</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685153</v>
+        <v>71.06533706685221</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877041</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685153</v>
+        <v>71.06533706685221</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.029398241354</v>
+        <v>383.0293982413542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877041</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685153</v>
+        <v>71.06533706685221</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>262.5008769366387</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>188.3103925113147</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208643</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686669</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.18155929205605</v>
+        <v>63.38328430557701</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015517</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0353604252219</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255596</v>
+        <v>52.99928112255604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739067</v>
+        <v>38.36018782739076</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.88630449671533</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>187.2119025315852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6390936003529</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620069</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.89577304195178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>259.0028406609164</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>35.49541628604582</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604493</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W38" t="n">
         <v>35.49541628604582</v>
@@ -30514,7 +30514,7 @@
         <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604504</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V41" t="n">
         <v>35.49541628604582</v>
@@ -30751,7 +30751,7 @@
         <v>35.49541628604582</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604504</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V44" t="n">
         <v>35.49541628604582</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392557</v>
+        <v>1.272637503392555</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161903</v>
+        <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.0633573495416</v>
+        <v>49.0633573495415</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035641</v>
+        <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221711</v>
+        <v>161.8842628221708</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166211</v>
+        <v>200.8317428166207</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175785</v>
+        <v>223.4640100175781</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240926</v>
+        <v>227.0798913240922</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497329</v>
+        <v>214.4251021497325</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847291</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944831</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248278</v>
+        <v>79.94231557248263</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855792</v>
+        <v>29.00022710855787</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100921</v>
+        <v>5.57097067110091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714045</v>
+        <v>0.1018110002714043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859333</v>
+        <v>0.680921094385932</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674672</v>
+        <v>6.57626425367466</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986657</v>
+        <v>23.44399381986652</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933066</v>
+        <v>64.33211093933053</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631882</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665598</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380498</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648748</v>
+        <v>177.0962279648745</v>
       </c>
       <c r="O3" t="n">
-        <v>162.008450031376</v>
+        <v>162.0084500313756</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674332</v>
+        <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.9189803991588</v>
+        <v>86.91898039915861</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248805</v>
+        <v>42.27683777248797</v>
       </c>
       <c r="S3" t="n">
-        <v>12.6478106786159</v>
+        <v>12.64781067861588</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739791</v>
+        <v>2.744589849739786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012721</v>
+        <v>0.04479744042012712</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.570861371911129</v>
+        <v>0.5708613719111278</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173495</v>
+        <v>5.075476561173486</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801832</v>
+        <v>17.16735834801829</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411681</v>
+        <v>40.35989899411673</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840206</v>
+        <v>66.32371211840193</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667821</v>
+        <v>84.87151705667806</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148723</v>
+        <v>89.48511487148706</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890946</v>
+        <v>87.35735884890929</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522033</v>
+        <v>80.68866009522017</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823323</v>
+        <v>69.04308810823311</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430372</v>
+        <v>47.80185542430362</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065857</v>
+        <v>25.66800314065852</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760307</v>
+        <v>9.948556817760288</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711187</v>
+        <v>2.439134952711182</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333434</v>
+        <v>0.03113789301333428</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31853,13 +31853,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P12" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33512,7 +33512,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895163</v>
+        <v>96.06422794895141</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483553</v>
+        <v>265.939824348355</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970844</v>
+        <v>382.7265423970839</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831382</v>
+        <v>442.6313102831379</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394859</v>
+        <v>435.0137521394854</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907915</v>
+        <v>365.1270719907911</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009422</v>
+        <v>273.5725762009419</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799383</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307268</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014078</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901448</v>
+        <v>380.1324513901445</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660314</v>
+        <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
-        <v>390.9007160254151</v>
+        <v>525.0968902250947</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636611</v>
+        <v>215.4928310509075</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930401</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489864</v>
+        <v>157.0144940489862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0542202925192</v>
+        <v>44.05422029251908</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169944</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333278</v>
+        <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.489531228138</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.27378800926</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312672</v>
+        <v>66.32164737312659</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502552</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.4358392395088</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>867.4697571238447</v>
       </c>
       <c r="O14" t="n">
-        <v>780.9358625458085</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>472.8298519832979</v>
       </c>
       <c r="L17" t="n">
-        <v>456.6075901479896</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>351.1795253908715</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>947.4478600927222</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>803.4886170813103</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>526.3796627754327</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>725.0407592145538</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>900.2030395794369</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37160,7 +37160,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37306,10 +37306,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>492.2643387092043</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,13 +37318,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>868.4722769325687</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597809</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911202</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37543,10 +37543,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>750.2929705636976</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>440.3816858455464</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597809</v>
+        <v>94.6235045359781</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>569.2762750197841</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37795,13 +37795,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>82.45066881166011</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597809</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37947,7 +37947,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
         <v>337.8485465086856</v>
@@ -38020,25 +38020,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>463.2626313632525</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>308.2986181421577</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38184,7 +38184,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
